--- a/biology/Médecine/Durillon/Durillon.xlsx
+++ b/biology/Médecine/Durillon/Durillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un durillon est un net épaississement et durcissement de la couche cornée (peau superficielle) de la paume de la main ou de la plante du pied[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un durillon est un net épaississement et durcissement de la couche cornée (peau superficielle) de la paume de la main ou de la plante du pied. 
 Le durillon, comme le cor, se développe parfois en profondeur dans le derme avec épaississement d'une bourse séreuse sous le derme. Parfois, l'os sous-jacent présente alors une altération avec un phénomène d'inflammation éventuellement accompagné d'une suppuration de la bourse séreuse située sous le durillon.
 </t>
         </is>
